--- a/Financial Analysis/GOOG.xlsx
+++ b/Financial Analysis/GOOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A761F9F-53EB-4639-B155-4141E83D61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59AD2E-C91E-4F8F-AFAD-541FA94E850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1C0874DB-3046-4806-9648-99CA4AF089C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C0874DB-3046-4806-9648-99CA4AF089C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91262500-59DE-4523-9441-73ADDC7E60F9}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,14 +924,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>166.7</v>
+        <v>165.81</v>
       </c>
       <c r="E3" s="4">
-        <v>45771</v>
+        <v>45781</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45781</v>
       </c>
       <c r="G3" s="4">
         <v>45862</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="D5" s="1">
         <f>D3*D4</f>
-        <v>2032072.9999999998</v>
+        <v>2021223.9000000001</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
       </c>
       <c r="D9" s="1">
         <f>D5-D8</f>
-        <v>1909316.9999999998</v>
+        <v>1898467.9000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB8BF10-D372-4210-91C6-9A1DF33E84B0}">
   <dimension ref="B1:GK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AI17" sqref="AI17"/>
@@ -2230,7 +2230,7 @@
         <v>90234</v>
       </c>
       <c r="AJ10" s="9">
-        <f t="shared" ref="AI10:AL10" si="15">SUM(AJ3:AJ9)</f>
+        <f t="shared" ref="AJ10:AL10" si="15">SUM(AJ3:AJ9)</f>
         <v>92463.6</v>
       </c>
       <c r="AK10" s="9">
@@ -3280,7 +3280,7 @@
         <v>16844.254349999999</v>
       </c>
       <c r="AY15" s="1">
-        <f t="shared" ref="AX15:BB15" si="41">AX15*1.02</f>
+        <f t="shared" ref="AY15:BB15" si="41">AX15*1.02</f>
         <v>17181.139436999998</v>
       </c>
       <c r="AZ15" s="1">
@@ -3693,7 +3693,7 @@
         <v>-7499.25</v>
       </c>
       <c r="AX17" s="1">
-        <f t="shared" ref="AW17:BF17" si="60">AW17*1.01</f>
+        <f t="shared" ref="AX17:BF17" si="60">AW17*1.01</f>
         <v>-7574.2425000000003</v>
       </c>
       <c r="AY17" s="1">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="BI38" s="2">
         <f>Main!D3</f>
-        <v>166.7</v>
+        <v>165.81</v>
       </c>
     </row>
     <row r="39" spans="2:61" x14ac:dyDescent="0.3">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="BI39" s="10">
         <f>BI37/BI38-1</f>
-        <v>0.17985662830320859</v>
+        <v>0.18618961424609415</v>
       </c>
     </row>
     <row r="40" spans="2:61" x14ac:dyDescent="0.3">
